--- a/template_examples/h_and_e_template.xlsx
+++ b/template_examples/h_and_e_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C763DD-78FE-BA4A-9FB2-FEC538053BC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983C3E85-3C90-6942-A617-482CEB9AA2A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1360" windowWidth="14400" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="24460" windowWidth="21380" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -1158,7 +1158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="289">
   <si>
     <t>#t</t>
   </si>
@@ -2003,9 +2003,6 @@
     <t>ship to</t>
   </si>
   <si>
-    <t>TTTPP801</t>
-  </si>
-  <si>
     <t>TRIALGROUP 1</t>
   </si>
   <si>
@@ -2015,9 +2012,6 @@
     <t>CTTTP08T1.00</t>
   </si>
   <si>
-    <t>TTTPP802</t>
-  </si>
-  <si>
     <t>TRIALGROUP 2</t>
   </si>
   <si>
@@ -2028,6 +2022,9 @@
   </si>
   <si>
     <t>A2</t>
+  </si>
+  <si>
+    <t>TTTPP8</t>
   </si>
 </sst>
 </file>
@@ -2180,9 +2177,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2191,6 +2185,9 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2546,10 +2543,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2558,7 +2555,7 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>275</v>
       </c>
     </row>
@@ -2569,7 +2566,7 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>276</v>
       </c>
     </row>
@@ -2580,7 +2577,7 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>3</v>
       </c>
     </row>
@@ -2591,7 +2588,7 @@
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2602,7 +2599,7 @@
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2613,7 +2610,7 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2624,7 +2621,7 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>277</v>
       </c>
     </row>
@@ -2635,7 +2632,7 @@
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2646,7 +2643,7 @@
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2657,7 +2654,7 @@
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>37174</v>
       </c>
     </row>
@@ -2668,7 +2665,7 @@
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>37539</v>
       </c>
     </row>
@@ -2679,7 +2676,7 @@
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2690,7 +2687,7 @@
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>279</v>
       </c>
     </row>
@@ -2701,7 +2698,7 @@
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3723,8 +3720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3734,42 +3731,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -3877,25 +3874,25 @@
         <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" t="s">
         <v>281</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>282</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>283</v>
-      </c>
-      <c r="H3" t="s">
-        <v>284</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K3" t="s">
         <v>213</v>
@@ -3972,22 +3969,22 @@
         <v>189</v>
       </c>
       <c r="E4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H4" t="s">
         <v>285</v>
-      </c>
-      <c r="F4" t="s">
-        <v>286</v>
-      </c>
-      <c r="G4" t="s">
-        <v>283</v>
-      </c>
-      <c r="H4" t="s">
-        <v>287</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K4" t="s">
         <v>213</v>

--- a/template_examples/h_and_e_template.xlsx
+++ b/template_examples/h_and_e_template.xlsx
@@ -1026,7 +1026,7 @@
     <row r="1" ht="16" customHeight="1" thickBot="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>#t</t>
+          <t>#title</t>
         </is>
       </c>
       <c r="B1" s="10" t="inlineStr">
@@ -1039,7 +1039,7 @@
     <row r="2" ht="17" customHeight="1" thickBot="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -1056,7 +1056,7 @@
     <row r="3" ht="17" customHeight="1" thickBot="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
     <row r="4" ht="17" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
     <row r="5" ht="17" customHeight="1" thickBot="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1105,7 +1105,7 @@
     <row r="6" ht="17" customHeight="1" thickBot="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
     <row r="7" ht="17" customHeight="1" thickBot="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -1139,7 +1139,7 @@
     <row r="8" ht="17" customHeight="1" thickBot="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="9" ht="17" customHeight="1" thickBot="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="10" ht="17" customHeight="1" thickBot="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -1190,7 +1190,7 @@
     <row r="11" ht="17" customHeight="1" thickBot="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -1205,7 +1205,7 @@
     <row r="12" ht="17" customHeight="1" thickBot="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1220,7 +1220,7 @@
     <row r="13" ht="33" customHeight="1" thickBot="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1237,7 +1237,7 @@
     <row r="14" ht="17" customHeight="1" thickBot="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1254,7 +1254,7 @@
     <row r="15" ht="17" customHeight="1" thickBot="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1272,1414 +1272,1414 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#mh</t>
+          <t>#skip</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>#h</t>
+          <t>#header</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>#mh</t>
+          <t>#skip</t>
         </is>
       </c>
       <c r="B1" s="10" t="inlineStr">
@@ -2762,7 +2762,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#h</t>
+          <t>#header</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -2919,7 +2919,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3049,7 +3049,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3179,1372 +3179,1372 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>

--- a/template_examples/h_and_e_template.xlsx
+++ b/template_examples/h_and_e_template.xlsx
@@ -1019,7 +1019,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" min="1" max="1"/>
+    <col hidden="1" width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -1268,7 +1268,6 @@
         </is>
       </c>
     </row>
-    <row r="16"/>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
@@ -2706,7 +2705,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" min="1" max="1"/>
+    <col hidden="1" width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="106"/>
   </cols>
   <sheetData>
@@ -4610,7 +4609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="B1:E45"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
@@ -4618,6 +4617,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -5442,7 +5442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T27"/>
+  <dimension ref="B1:T27"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="U1" sqref="U1:Y1"/>
@@ -5450,6 +5450,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
